--- a/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BBEFAF0-7C48-4520-8F29-579017460419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8199FBDD-8443-4658-90D7-B6A0ED872D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6BB0D013-6A41-4008-8966-8B0260BFF628}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA6304D-BE60-4927-8023-ECA92973AA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="938">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -821,7 +821,79 @@
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>27,73%</t>
@@ -980,1798 +1052,1807 @@
     <t>40,57%</t>
   </si>
   <si>
-    <t>43,64%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>39,72%</t>
   </si>
   <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>13,74%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>55,85%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
   </si>
   <si>
     <t>9,62%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
 </sst>
 </file>
@@ -3183,7 +3264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90192CB-01F2-4A7D-AFD5-243E4D79B691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB55D3E-757E-44AB-A95C-95844726BD9B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5173,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4FBB03-1A2D-4C44-9911-94D8E762FD57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A228042-2C7D-4544-85BC-260843DDC9C8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5291,43 +5372,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="D4" s="7">
+        <v>127106</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>260</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I4" s="7">
+        <v>124940</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>260</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>229</v>
+      </c>
+      <c r="N4" s="7">
+        <v>252046</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>260</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,43 +5423,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>122</v>
+      </c>
+      <c r="D5" s="7">
+        <v>124915</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I5" s="7">
+        <v>132959</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>243</v>
+      </c>
+      <c r="N5" s="7">
+        <v>257874</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,43 +5474,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>37520</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>21293</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>54</v>
+      </c>
+      <c r="N6" s="7">
+        <v>58812</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,43 +5525,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D7" s="7">
+        <v>289541</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>249</v>
+      </c>
+      <c r="I7" s="7">
+        <v>279191</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>526</v>
+      </c>
+      <c r="N7" s="7">
+        <v>568732</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5584,13 @@
         <v>138961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>144</v>
@@ -5494,13 +5599,13 @@
         <v>153843</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>273</v>
@@ -5509,13 +5614,13 @@
         <v>292804</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5635,13 @@
         <v>248012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>270</v>
+        <v>294</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>182</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="H9" s="7">
         <v>223</v>
@@ -5545,13 +5650,13 @@
         <v>245017</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="M9" s="7">
         <v>458</v>
@@ -5560,13 +5665,13 @@
         <v>493030</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5581,13 +5686,13 @@
         <v>114210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>111</v>
@@ -5596,13 +5701,13 @@
         <v>122913</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>216</v>
@@ -5611,13 +5716,13 @@
         <v>237123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5790,13 @@
         <v>37968</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7">
         <v>40</v>
@@ -5700,13 +5805,13 @@
         <v>41095</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
@@ -5715,13 +5820,13 @@
         <v>79063</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5841,13 @@
         <v>172448</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>152</v>
@@ -5751,13 +5856,13 @@
         <v>166958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="M13" s="7">
         <v>320</v>
@@ -5766,13 +5871,13 @@
         <v>339406</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5787,13 +5892,13 @@
         <v>111629</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>124</v>
@@ -5802,13 +5907,13 @@
         <v>131896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="M14" s="7">
         <v>236</v>
@@ -5820,10 +5925,10 @@
         <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,49 +5990,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="D16" s="7">
-        <v>287647</v>
+        <v>160541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="I16" s="7">
-        <v>288700</v>
+        <v>163761</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>529</v>
+        <v>300</v>
       </c>
       <c r="N16" s="7">
-        <v>576347</v>
+        <v>324301</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,49 +6041,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>260</v>
+        <v>138</v>
       </c>
       <c r="D17" s="7">
-        <v>274751</v>
+        <v>149835</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="H17" s="7">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7">
-        <v>271663</v>
+        <v>138704</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>215</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>146</v>
+        <v>351</v>
       </c>
       <c r="M17" s="7">
-        <v>517</v>
+        <v>274</v>
       </c>
       <c r="N17" s="7">
-        <v>546413</v>
+        <v>288539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,49 +6092,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="D18" s="7">
-        <v>96707</v>
+        <v>59187</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="H18" s="7">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="I18" s="7">
-        <v>103712</v>
+        <v>82419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="M18" s="7">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="N18" s="7">
-        <v>200419</v>
+        <v>141606</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>617</v>
+        <v>340</v>
       </c>
       <c r="D19" s="7">
-        <v>659104</v>
+        <v>369563</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -6053,10 +6158,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>616</v>
+        <v>367</v>
       </c>
       <c r="I19" s="7">
-        <v>664075</v>
+        <v>384884</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -6068,10 +6173,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1233</v>
+        <v>707</v>
       </c>
       <c r="N19" s="7">
-        <v>1323179</v>
+        <v>754447</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -6097,13 +6202,13 @@
         <v>25509</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -6112,13 +6217,13 @@
         <v>30698</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="M20" s="7">
         <v>53</v>
@@ -6127,13 +6232,13 @@
         <v>56207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6253,13 @@
         <v>66311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>79</v>
@@ -6163,13 +6268,13 @@
         <v>80926</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>104</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="M21" s="7">
         <v>140</v>
@@ -6178,13 +6283,13 @@
         <v>147237</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6304,13 @@
         <v>120798</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>105</v>
@@ -6214,13 +6319,13 @@
         <v>107967</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>215</v>
@@ -6229,13 +6334,13 @@
         <v>228765</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6408,13 @@
         <v>33369</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -6318,13 +6423,13 @@
         <v>31032</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -6333,13 +6438,13 @@
         <v>64402</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6459,13 @@
         <v>125891</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -6369,13 +6474,13 @@
         <v>147469</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>262</v>
@@ -6384,13 +6489,13 @@
         <v>273360</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6510,13 @@
         <v>114721</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6420,13 +6525,13 @@
         <v>101530</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="M26" s="7">
         <v>208</v>
@@ -6435,13 +6540,13 @@
         <v>216251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6509,13 +6614,13 @@
         <v>109895</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="H28" s="7">
         <v>116</v>
@@ -6524,13 +6629,13 @@
         <v>127013</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="M28" s="7">
         <v>216</v>
@@ -6539,13 +6644,13 @@
         <v>236908</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6560,13 +6665,13 @@
         <v>368435</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>366</v>
@@ -6575,13 +6680,13 @@
         <v>397926</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>710</v>
@@ -6590,13 +6695,13 @@
         <v>766361</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,10 +6716,10 @@
         <v>183355</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>145</v>
@@ -6626,13 +6731,13 @@
         <v>167927</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="M30" s="7">
         <v>326</v>
@@ -6641,13 +6746,13 @@
         <v>351283</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>60</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6715,13 +6820,13 @@
         <v>467626</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="H32" s="7">
         <v>454</v>
@@ -6730,13 +6835,13 @@
         <v>493825</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="M32" s="7">
         <v>888</v>
@@ -6745,13 +6850,13 @@
         <v>961451</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6871,13 @@
         <v>197216</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="H33" s="7">
         <v>188</v>
@@ -6781,13 +6886,13 @@
         <v>206662</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="M33" s="7">
         <v>363</v>
@@ -6796,13 +6901,13 @@
         <v>403878</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,10 +6922,10 @@
         <v>114256</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>328</v>
+        <v>459</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>256</v>
@@ -6832,13 +6937,13 @@
         <v>119043</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>219</v>
@@ -6847,13 +6952,13 @@
         <v>233299</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6921,13 +7026,13 @@
         <v>1100975</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7">
         <v>1073</v>
@@ -6936,13 +7041,13 @@
         <v>1166206</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="M36" s="7">
         <v>2096</v>
@@ -6951,13 +7056,13 @@
         <v>2267181</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>473</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>474</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +7077,13 @@
         <v>1453063</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="H37" s="7">
         <v>1407</v>
@@ -6987,13 +7092,13 @@
         <v>1516622</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>453</v>
+        <v>480</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>454</v>
+        <v>481</v>
       </c>
       <c r="M37" s="7">
         <v>2770</v>
@@ -7002,13 +7107,13 @@
         <v>2969685</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>455</v>
+        <v>482</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>456</v>
+        <v>483</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>457</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,13 +7128,13 @@
         <v>855676</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="H38" s="7">
         <v>799</v>
@@ -7038,13 +7143,13 @@
         <v>854989</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="M38" s="7">
         <v>1607</v>
@@ -7053,13 +7158,13 @@
         <v>1710665</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7191,7 @@
         <v>3279</v>
       </c>
       <c r="I39" s="7">
-        <v>3537816</v>
+        <v>3537817</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -7139,7 +7244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D39999A-C62D-4489-9724-319443F528ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AF8CF-0D85-4F62-9165-33BE2BA754D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7156,7 +7261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7263,13 +7368,13 @@
         <v>126329</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>127</v>
@@ -7278,13 +7383,13 @@
         <v>131594</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>239</v>
@@ -7293,13 +7398,13 @@
         <v>257923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7419,13 @@
         <v>117006</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>501</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>503</v>
       </c>
       <c r="H5" s="7">
         <v>100</v>
@@ -7329,13 +7434,13 @@
         <v>106908</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>319</v>
+        <v>506</v>
       </c>
       <c r="M5" s="7">
         <v>206</v>
@@ -7344,10 +7449,10 @@
         <v>223914</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>80</v>
@@ -7365,13 +7470,13 @@
         <v>44580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>484</v>
+        <v>357</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -7380,13 +7485,13 @@
         <v>48190</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>486</v>
+        <v>511</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>487</v>
+        <v>512</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -7395,13 +7500,13 @@
         <v>92771</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>488</v>
+        <v>513</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>335</v>
+        <v>514</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7548,7 @@
         <v>535</v>
       </c>
       <c r="N7" s="7">
-        <v>574608</v>
+        <v>574607</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7469,13 +7574,13 @@
         <v>97985</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>102</v>
@@ -7484,13 +7589,13 @@
         <v>112349</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>192</v>
@@ -7499,13 +7604,13 @@
         <v>210334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,10 +7625,10 @@
         <v>223163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>79</v>
@@ -7535,13 +7640,13 @@
         <v>245136</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="M9" s="7">
         <v>443</v>
@@ -7550,13 +7655,13 @@
         <v>468299</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,13 +7676,13 @@
         <v>180410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -7586,13 +7691,13 @@
         <v>163567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="M10" s="7">
         <v>321</v>
@@ -7601,13 +7706,13 @@
         <v>343978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>539</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7675,13 +7780,13 @@
         <v>57961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="H12" s="7">
         <v>73</v>
@@ -7690,13 +7795,13 @@
         <v>72652</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="M12" s="7">
         <v>136</v>
@@ -7705,13 +7810,13 @@
         <v>130613</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,13 +7831,13 @@
         <v>173949</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>552</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="H13" s="7">
         <v>175</v>
@@ -7741,13 +7846,13 @@
         <v>175382</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>554</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>556</v>
       </c>
       <c r="M13" s="7">
         <v>359</v>
@@ -7756,13 +7861,13 @@
         <v>349331</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>558</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7777,13 +7882,13 @@
         <v>86655</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>560</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>562</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -7792,13 +7897,13 @@
         <v>87373</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -7807,13 +7912,13 @@
         <v>174028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>566</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7986,13 @@
         <v>170298</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>570</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="H16" s="7">
         <v>181</v>
@@ -7896,13 +8001,13 @@
         <v>196470</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>574</v>
       </c>
       <c r="M16" s="7">
         <v>350</v>
@@ -7911,13 +8016,13 @@
         <v>366768</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +8037,13 @@
         <v>143213</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>578</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -7947,13 +8052,13 @@
         <v>128833</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="M17" s="7">
         <v>250</v>
@@ -7962,13 +8067,13 @@
         <v>272046</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7983,13 +8088,13 @@
         <v>51856</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>560</v>
+        <v>586</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>562</v>
+        <v>588</v>
       </c>
       <c r="H18" s="7">
         <v>55</v>
@@ -7998,13 +8103,13 @@
         <v>58618</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="M18" s="7">
         <v>105</v>
@@ -8013,13 +8118,13 @@
         <v>110473</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8192,13 @@
         <v>129058</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>596</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -8102,13 +8207,13 @@
         <v>142209</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>600</v>
       </c>
       <c r="M20" s="7">
         <v>278</v>
@@ -8117,13 +8222,13 @@
         <v>271266</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>602</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>603</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8243,13 @@
         <v>56092</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="H21" s="7">
         <v>56</v>
@@ -8153,13 +8258,13 @@
         <v>56338</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>580</v>
+        <v>606</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>582</v>
+        <v>608</v>
       </c>
       <c r="M21" s="7">
         <v>110</v>
@@ -8168,13 +8273,13 @@
         <v>112430</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>584</v>
+        <v>610</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>585</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8192,10 +8297,10 @@
         <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>586</v>
+        <v>612</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
@@ -8204,13 +8309,13 @@
         <v>20040</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>588</v>
+        <v>614</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -8219,13 +8324,13 @@
         <v>46112</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,13 +8398,13 @@
         <v>56342</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>594</v>
+        <v>358</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>485</v>
+        <v>510</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="H24" s="7">
         <v>70</v>
@@ -8308,13 +8413,13 @@
         <v>74299</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>623</v>
       </c>
       <c r="M24" s="7">
         <v>125</v>
@@ -8323,13 +8428,13 @@
         <v>130641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>599</v>
+        <v>624</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>600</v>
+        <v>625</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>601</v>
+        <v>626</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8449,13 @@
         <v>120765</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>602</v>
+        <v>627</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>603</v>
+        <v>628</v>
       </c>
       <c r="H25" s="7">
         <v>126</v>
@@ -8359,13 +8464,13 @@
         <v>131814</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>604</v>
+        <v>629</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>605</v>
+        <v>630</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>606</v>
+        <v>631</v>
       </c>
       <c r="M25" s="7">
         <v>246</v>
@@ -8374,13 +8479,13 @@
         <v>252579</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>607</v>
+        <v>632</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>608</v>
+        <v>633</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>609</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,13 +8500,13 @@
         <v>86016</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>610</v>
+        <v>635</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>612</v>
+        <v>637</v>
       </c>
       <c r="H26" s="7">
         <v>66</v>
@@ -8410,13 +8515,13 @@
         <v>65967</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>613</v>
+        <v>638</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>614</v>
+        <v>639</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>615</v>
+        <v>640</v>
       </c>
       <c r="M26" s="7">
         <v>150</v>
@@ -8425,13 +8530,13 @@
         <v>151983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>616</v>
+        <v>641</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>617</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>618</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8499,13 +8604,13 @@
         <v>199083</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>619</v>
+        <v>644</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>620</v>
+        <v>645</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="H28" s="7">
         <v>197</v>
@@ -8514,28 +8619,28 @@
         <v>212369</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>624</v>
+        <v>649</v>
       </c>
       <c r="M28" s="7">
         <v>369</v>
       </c>
       <c r="N28" s="7">
-        <v>411453</v>
+        <v>411452</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>625</v>
+        <v>650</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,13 +8655,13 @@
         <v>308103</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="H29" s="7">
         <v>306</v>
@@ -8565,28 +8670,28 @@
         <v>323856</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>631</v>
+        <v>656</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>632</v>
+        <v>657</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>572</v>
       </c>
       <c r="M29" s="7">
         <v>579</v>
       </c>
       <c r="N29" s="7">
-        <v>631960</v>
+        <v>631959</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>633</v>
+        <v>658</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>634</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,10 +8706,10 @@
         <v>149371</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>636</v>
+        <v>660</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>210</v>
@@ -8616,28 +8721,28 @@
         <v>150820</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>638</v>
+        <v>662</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="M30" s="7">
         <v>274</v>
       </c>
       <c r="N30" s="7">
-        <v>300192</v>
+        <v>300191</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8679,7 +8784,7 @@
         <v>1222</v>
       </c>
       <c r="N31" s="7">
-        <v>1343604</v>
+        <v>1343603</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -8705,13 +8810,13 @@
         <v>427988</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
       <c r="H32" s="7">
         <v>428</v>
@@ -8720,13 +8825,13 @@
         <v>467066</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>114</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
       <c r="M32" s="7">
         <v>845</v>
@@ -8735,13 +8840,13 @@
         <v>895053</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8861,13 @@
         <v>194005</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="H33" s="7">
         <v>169</v>
@@ -8771,13 +8876,13 @@
         <v>185486</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="M33" s="7">
         <v>355</v>
@@ -8789,10 +8894,10 @@
         <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>657</v>
+        <v>681</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,13 +8912,13 @@
         <v>155504</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>658</v>
+        <v>682</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>659</v>
+        <v>683</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>660</v>
+        <v>684</v>
       </c>
       <c r="H34" s="7">
         <v>157</v>
@@ -8825,10 +8930,10 @@
         <v>67</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>661</v>
+        <v>685</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="M34" s="7">
         <v>303</v>
@@ -8837,13 +8942,13 @@
         <v>327784</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>663</v>
+        <v>687</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,13 +9016,13 @@
         <v>1265044</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>666</v>
+        <v>690</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>668</v>
+        <v>692</v>
       </c>
       <c r="H36" s="7">
         <v>1324</v>
@@ -8926,13 +9031,13 @@
         <v>1409008</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>670</v>
+        <v>694</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>671</v>
+        <v>695</v>
       </c>
       <c r="M36" s="7">
         <v>2534</v>
@@ -8941,13 +9046,13 @@
         <v>2674052</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +9067,13 @@
         <v>1336296</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="H37" s="7">
         <v>1279</v>
@@ -8977,13 +9082,13 @@
         <v>1353753</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="M37" s="7">
         <v>2548</v>
@@ -8992,13 +9097,13 @@
         <v>2690049</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>322</v>
+        <v>706</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>682</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9118,13 @@
         <v>780465</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>683</v>
+        <v>708</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>684</v>
+        <v>709</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>685</v>
+        <v>710</v>
       </c>
       <c r="H38" s="7">
         <v>721</v>
@@ -9028,10 +9133,10 @@
         <v>766855</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>686</v>
+        <v>711</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>66</v>
@@ -9043,13 +9148,13 @@
         <v>1547320</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>688</v>
+        <v>713</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>689</v>
+        <v>714</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>690</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,7 +9181,7 @@
         <v>3324</v>
       </c>
       <c r="I39" s="7">
-        <v>3529616</v>
+        <v>3529617</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -9129,7 +9234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A0525E-0766-4FCF-8C4E-71654D8FC3D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16E29C3-4ABD-467E-9D87-F5B80CFAA2BF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9146,7 +9251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9250,46 +9355,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>6651</v>
+        <v>8224</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>692</v>
+        <v>717</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>693</v>
+        <v>718</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="H4" s="7">
         <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>7890</v>
+        <v>8394</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>696</v>
+        <v>721</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>697</v>
+        <v>722</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>14541</v>
+        <v>16618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>698</v>
+        <v>723</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>699</v>
+        <v>724</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>700</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,46 +9406,46 @@
         <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>15761</v>
+        <v>18238</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>701</v>
+        <v>726</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>702</v>
+        <v>727</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>703</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
       </c>
       <c r="I5" s="7">
-        <v>9234</v>
+        <v>9641</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>704</v>
+        <v>728</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>705</v>
+        <v>729</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>706</v>
+        <v>730</v>
       </c>
       <c r="M5" s="7">
         <v>45</v>
       </c>
       <c r="N5" s="7">
-        <v>24995</v>
+        <v>27878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>708</v>
+        <v>732</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>709</v>
+        <v>733</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9352,46 +9457,46 @@
         <v>297</v>
       </c>
       <c r="D6" s="7">
-        <v>237885</v>
+        <v>284982</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>710</v>
+        <v>734</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>711</v>
+        <v>735</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>712</v>
+        <v>736</v>
       </c>
       <c r="H6" s="7">
         <v>502</v>
       </c>
       <c r="I6" s="7">
-        <v>254279</v>
+        <v>271600</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>714</v>
+        <v>738</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="M6" s="7">
         <v>799</v>
       </c>
       <c r="N6" s="7">
-        <v>492164</v>
+        <v>556581</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>716</v>
+        <v>740</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>717</v>
+        <v>741</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>718</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9403,7 +9508,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -9418,7 +9523,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -9433,7 +9538,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -9456,46 +9561,46 @@
         <v>20</v>
       </c>
       <c r="D8" s="7">
-        <v>28419</v>
+        <v>28105</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>719</v>
+        <v>743</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>704</v>
+        <v>744</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>126</v>
+        <v>745</v>
       </c>
       <c r="H8" s="7">
         <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>35139</v>
+        <v>32425</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>721</v>
+        <v>747</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="M8" s="7">
         <v>63</v>
       </c>
       <c r="N8" s="7">
-        <v>63558</v>
+        <v>60530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>89</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9507,46 +9612,46 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>120444</v>
+        <v>118406</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>727</v>
+        <v>753</v>
       </c>
       <c r="H9" s="7">
         <v>178</v>
       </c>
       <c r="I9" s="7">
-        <v>140998</v>
+        <v>130416</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>754</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>425</v>
+        <v>755</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
       </c>
       <c r="N9" s="7">
-        <v>261442</v>
+        <v>248822</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9558,46 +9663,46 @@
         <v>267</v>
       </c>
       <c r="D10" s="7">
-        <v>370434</v>
+        <v>371879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>732</v>
+        <v>761</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>733</v>
+        <v>762</v>
       </c>
       <c r="H10" s="7">
         <v>496</v>
       </c>
       <c r="I10" s="7">
-        <v>378429</v>
+        <v>352128</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>734</v>
+        <v>763</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="M10" s="7">
         <v>763</v>
       </c>
       <c r="N10" s="7">
-        <v>748864</v>
+        <v>724007</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9609,7 +9714,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -9624,7 +9729,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -9639,7 +9744,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -9662,46 +9767,46 @@
         <v>35</v>
       </c>
       <c r="D12" s="7">
-        <v>32497</v>
+        <v>31949</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>204</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="H12" s="7">
         <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>30058</v>
+        <v>28155</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>742</v>
+        <v>390</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>591</v>
+        <v>772</v>
       </c>
       <c r="M12" s="7">
         <v>77</v>
       </c>
       <c r="N12" s="7">
-        <v>62554</v>
+        <v>60105</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,46 +9818,46 @@
         <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>38319</v>
+        <v>36935</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
       <c r="H13" s="7">
         <v>72</v>
       </c>
       <c r="I13" s="7">
-        <v>52880</v>
+        <v>49414</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>752</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
       </c>
       <c r="N13" s="7">
-        <v>91198</v>
+        <v>86349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,46 +9869,46 @@
         <v>276</v>
       </c>
       <c r="D14" s="7">
-        <v>250376</v>
+        <v>246146</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="H14" s="7">
         <v>419</v>
       </c>
       <c r="I14" s="7">
-        <v>288392</v>
+        <v>269748</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="M14" s="7">
         <v>695</v>
       </c>
       <c r="N14" s="7">
-        <v>538767</v>
+        <v>515894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9815,7 +9920,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321191</v>
+        <v>315031</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -9830,7 +9935,7 @@
         <v>533</v>
       </c>
       <c r="I15" s="7">
-        <v>371329</v>
+        <v>347317</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -9845,7 +9950,7 @@
         <v>892</v>
       </c>
       <c r="N15" s="7">
-        <v>692519</v>
+        <v>662348</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -9868,46 +9973,46 @@
         <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>27614</v>
+        <v>26517</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>40201</v>
+        <v>36825</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="M16" s="7">
         <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>67815</v>
+        <v>63342</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>173</v>
+        <v>799</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9919,46 +10024,46 @@
         <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>53190</v>
+        <v>50877</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>538</v>
+        <v>804</v>
       </c>
       <c r="H17" s="7">
         <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>69752</v>
+        <v>120210</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>775</v>
+        <v>805</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>776</v>
+        <v>806</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>777</v>
+        <v>807</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
       </c>
       <c r="N17" s="7">
-        <v>122942</v>
+        <v>171087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>491</v>
+        <v>362</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>808</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>778</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9970,46 +10075,46 @@
         <v>205</v>
       </c>
       <c r="D18" s="7">
-        <v>241436</v>
+        <v>235163</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>779</v>
+        <v>810</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>780</v>
+        <v>811</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>781</v>
+        <v>812</v>
       </c>
       <c r="H18" s="7">
         <v>448</v>
       </c>
       <c r="I18" s="7">
-        <v>317941</v>
+        <v>318071</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>782</v>
+        <v>813</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>783</v>
+        <v>814</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>784</v>
+        <v>815</v>
       </c>
       <c r="M18" s="7">
         <v>653</v>
       </c>
       <c r="N18" s="7">
-        <v>559377</v>
+        <v>553233</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10021,7 +10126,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -10036,7 +10141,7 @@
         <v>598</v>
       </c>
       <c r="I19" s="7">
-        <v>427894</v>
+        <v>475105</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -10051,7 +10156,7 @@
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>750134</v>
+        <v>787662</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -10077,43 +10182,43 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>906</v>
+        <v>832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>906</v>
+        <v>832</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10125,46 +10230,46 @@
         <v>22</v>
       </c>
       <c r="D21" s="7">
-        <v>16875</v>
+        <v>15097</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>288</v>
+        <v>826</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>795</v>
+        <v>827</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>753</v>
+        <v>276</v>
       </c>
       <c r="H21" s="7">
         <v>30</v>
       </c>
       <c r="I21" s="7">
-        <v>13739</v>
+        <v>12463</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>796</v>
+        <v>828</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>797</v>
+        <v>829</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>798</v>
+        <v>830</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
       </c>
       <c r="N21" s="7">
-        <v>30613</v>
+        <v>27559</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>799</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10176,46 +10281,46 @@
         <v>257</v>
       </c>
       <c r="D22" s="7">
-        <v>179873</v>
+        <v>163645</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="H22" s="7">
         <v>461</v>
       </c>
       <c r="I22" s="7">
-        <v>243939</v>
+        <v>244639</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>712</v>
+        <v>836</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>805</v>
+        <v>837</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="M22" s="7">
         <v>718</v>
       </c>
       <c r="N22" s="7">
-        <v>423813</v>
+        <v>408285</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>809</v>
+        <v>841</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10227,7 +10332,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -10242,7 +10347,7 @@
         <v>493</v>
       </c>
       <c r="I23" s="7">
-        <v>258584</v>
+        <v>257934</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -10257,7 +10362,7 @@
         <v>772</v>
       </c>
       <c r="N23" s="7">
-        <v>455332</v>
+        <v>436676</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -10280,46 +10385,46 @@
         <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>17294</v>
+        <v>16407</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>810</v>
+        <v>842</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>811</v>
+        <v>843</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>812</v>
+        <v>844</v>
       </c>
       <c r="H24" s="7">
         <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>18661</v>
+        <v>17084</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>813</v>
+        <v>845</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>814</v>
+        <v>846</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
       </c>
       <c r="N24" s="7">
-        <v>35954</v>
+        <v>33491</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>816</v>
+        <v>848</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>817</v>
+        <v>849</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>818</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10331,46 +10436,46 @@
         <v>19</v>
       </c>
       <c r="D25" s="7">
-        <v>11923</v>
+        <v>11551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>819</v>
+        <v>851</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>821</v>
+        <v>853</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
       </c>
       <c r="I25" s="7">
-        <v>13860</v>
+        <v>12872</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>822</v>
+        <v>854</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>823</v>
+        <v>855</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>824</v>
+        <v>856</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
       </c>
       <c r="N25" s="7">
-        <v>25783</v>
+        <v>24423</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>704</v>
+        <v>858</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>826</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,46 +10487,46 @@
         <v>332</v>
       </c>
       <c r="D26" s="7">
-        <v>247584</v>
+        <v>241278</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>828</v>
+        <v>861</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>716</v>
+        <v>862</v>
       </c>
       <c r="H26" s="7">
         <v>406</v>
       </c>
       <c r="I26" s="7">
-        <v>242379</v>
+        <v>226433</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>829</v>
+        <v>863</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>830</v>
+        <v>864</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>831</v>
+        <v>865</v>
       </c>
       <c r="M26" s="7">
         <v>738</v>
       </c>
       <c r="N26" s="7">
-        <v>489963</v>
+        <v>467711</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>832</v>
+        <v>866</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>833</v>
+        <v>867</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>834</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10433,7 +10538,7 @@
         <v>370</v>
       </c>
       <c r="D27" s="7">
-        <v>276800</v>
+        <v>269236</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -10448,7 +10553,7 @@
         <v>459</v>
       </c>
       <c r="I27" s="7">
-        <v>274900</v>
+        <v>256389</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -10463,7 +10568,7 @@
         <v>829</v>
       </c>
       <c r="N27" s="7">
-        <v>551700</v>
+        <v>525625</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -10486,46 +10591,46 @@
         <v>117</v>
       </c>
       <c r="D28" s="7">
-        <v>123694</v>
+        <v>121994</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>835</v>
+        <v>869</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>836</v>
+        <v>870</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>837</v>
+        <v>871</v>
       </c>
       <c r="H28" s="7">
         <v>190</v>
       </c>
       <c r="I28" s="7">
-        <v>252715</v>
+        <v>336798</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>838</v>
+        <v>872</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>839</v>
+        <v>93</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>840</v>
+        <v>873</v>
       </c>
       <c r="M28" s="7">
         <v>307</v>
       </c>
       <c r="N28" s="7">
-        <v>376409</v>
+        <v>458792</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>841</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>842</v>
+        <v>253</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>843</v>
+        <v>874</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10537,46 +10642,46 @@
         <v>103</v>
       </c>
       <c r="D29" s="7">
-        <v>104511</v>
+        <v>102413</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>844</v>
+        <v>875</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>845</v>
+        <v>876</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
       </c>
       <c r="I29" s="7">
-        <v>127919</v>
+        <v>119212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>847</v>
+        <v>878</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>848</v>
+        <v>879</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>490</v>
+        <v>880</v>
       </c>
       <c r="M29" s="7">
         <v>293</v>
       </c>
       <c r="N29" s="7">
-        <v>232429</v>
+        <v>221625</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>849</v>
+        <v>881</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>850</v>
+        <v>882</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>851</v>
+        <v>883</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,46 +10693,46 @@
         <v>377</v>
       </c>
       <c r="D30" s="7">
-        <v>399231</v>
+        <v>399544</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>852</v>
+        <v>884</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>853</v>
+        <v>885</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>854</v>
+        <v>886</v>
       </c>
       <c r="H30" s="7">
         <v>578</v>
       </c>
       <c r="I30" s="7">
-        <v>422105</v>
+        <v>391918</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>855</v>
+        <v>887</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>857</v>
+        <v>888</v>
       </c>
       <c r="M30" s="7">
         <v>955</v>
       </c>
       <c r="N30" s="7">
-        <v>821336</v>
+        <v>791462</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>402</v>
+        <v>889</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>859</v>
+        <v>891</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,7 +10744,7 @@
         <v>597</v>
       </c>
       <c r="D31" s="7">
-        <v>627435</v>
+        <v>623951</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>40</v>
@@ -10654,7 +10759,7 @@
         <v>958</v>
       </c>
       <c r="I31" s="7">
-        <v>802739</v>
+        <v>847928</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>40</v>
@@ -10669,7 +10774,7 @@
         <v>1555</v>
       </c>
       <c r="N31" s="7">
-        <v>1430174</v>
+        <v>1471879</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -10692,46 +10797,46 @@
         <v>38</v>
       </c>
       <c r="D32" s="7">
-        <v>39062</v>
+        <v>33218</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>860</v>
+        <v>892</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>810</v>
+        <v>894</v>
       </c>
       <c r="H32" s="7">
         <v>79</v>
       </c>
       <c r="I32" s="7">
-        <v>61751</v>
+        <v>51720</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>862</v>
+        <v>199</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>863</v>
+        <v>615</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>864</v>
+        <v>895</v>
       </c>
       <c r="M32" s="7">
         <v>117</v>
       </c>
       <c r="N32" s="7">
-        <v>100812</v>
+        <v>84938</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>865</v>
+        <v>280</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>866</v>
+        <v>896</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>867</v>
+        <v>897</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10743,46 +10848,46 @@
         <v>70</v>
       </c>
       <c r="D33" s="7">
-        <v>78383</v>
+        <v>65987</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>868</v>
+        <v>898</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>869</v>
+        <v>744</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="H33" s="7">
         <v>120</v>
       </c>
       <c r="I33" s="7">
-        <v>99499</v>
+        <v>82015</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>871</v>
+        <v>900</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="M33" s="7">
         <v>190</v>
       </c>
       <c r="N33" s="7">
-        <v>177882</v>
+        <v>148003</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>875</v>
+        <v>719</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>337</v>
+        <v>903</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10794,46 +10899,46 @@
         <v>654</v>
       </c>
       <c r="D34" s="7">
-        <v>741983</v>
+        <v>829514</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>877</v>
+        <v>905</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>878</v>
+        <v>906</v>
       </c>
       <c r="H34" s="7">
         <v>861</v>
       </c>
       <c r="I34" s="7">
-        <v>706395</v>
+        <v>583295</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>880</v>
+        <v>908</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="M34" s="7">
         <v>1515</v>
       </c>
       <c r="N34" s="7">
-        <v>1448378</v>
+        <v>1412809</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>882</v>
+        <v>861</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>883</v>
+        <v>910</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10845,7 +10950,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>40</v>
@@ -10860,7 +10965,7 @@
         <v>1060</v>
       </c>
       <c r="I35" s="7">
-        <v>867644</v>
+        <v>717030</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>40</v>
@@ -10875,7 +10980,7 @@
         <v>1822</v>
       </c>
       <c r="N35" s="7">
-        <v>1727072</v>
+        <v>1645750</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>40</v>
@@ -10898,46 +11003,46 @@
         <v>268</v>
       </c>
       <c r="D36" s="7">
-        <v>275230</v>
+        <v>266415</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>885</v>
+        <v>912</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>886</v>
+        <v>913</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>887</v>
+        <v>914</v>
       </c>
       <c r="H36" s="7">
         <v>457</v>
       </c>
       <c r="I36" s="7">
-        <v>447320</v>
+        <v>512233</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>888</v>
+        <v>915</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>890</v>
+        <v>917</v>
       </c>
       <c r="M36" s="7">
         <v>725</v>
       </c>
       <c r="N36" s="7">
-        <v>722550</v>
+        <v>778647</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>891</v>
+        <v>918</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>892</v>
+        <v>919</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>893</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10949,46 +11054,46 @@
         <v>439</v>
       </c>
       <c r="D37" s="7">
-        <v>439405</v>
+        <v>419503</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>894</v>
+        <v>920</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>895</v>
+        <v>921</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>896</v>
+        <v>922</v>
       </c>
       <c r="H37" s="7">
         <v>728</v>
       </c>
       <c r="I37" s="7">
-        <v>527880</v>
+        <v>536242</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>897</v>
+        <v>923</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>898</v>
+        <v>924</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>899</v>
+        <v>925</v>
       </c>
       <c r="M37" s="7">
         <v>1167</v>
       </c>
       <c r="N37" s="7">
-        <v>967284</v>
+        <v>955746</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>900</v>
+        <v>926</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>898</v>
+        <v>927</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>901</v>
+        <v>928</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11000,46 +11105,46 @@
         <v>2665</v>
       </c>
       <c r="D38" s="7">
-        <v>2668801</v>
+        <v>2772151</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>902</v>
+        <v>929</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>903</v>
+        <v>930</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>904</v>
+        <v>931</v>
       </c>
       <c r="H38" s="7">
         <v>4171</v>
       </c>
       <c r="I38" s="7">
-        <v>2853859</v>
+        <v>2657832</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>905</v>
+        <v>932</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>906</v>
+        <v>933</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>907</v>
+        <v>934</v>
       </c>
       <c r="M38" s="7">
         <v>6836</v>
       </c>
       <c r="N38" s="7">
-        <v>5522660</v>
+        <v>5429983</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>908</v>
+        <v>935</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>909</v>
+        <v>936</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>910</v>
+        <v>937</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11051,7 +11156,7 @@
         <v>3372</v>
       </c>
       <c r="D39" s="7">
-        <v>3383436</v>
+        <v>3458069</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>40</v>
@@ -11066,7 +11171,7 @@
         <v>5356</v>
       </c>
       <c r="I39" s="7">
-        <v>3829059</v>
+        <v>3706307</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>40</v>
@@ -11081,7 +11186,7 @@
         <v>8728</v>
       </c>
       <c r="N39" s="7">
-        <v>7212494</v>
+        <v>7164376</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>40</v>
